--- a/Sprint Backlog 4º Sprint.xlsx
+++ b/Sprint Backlog 4º Sprint.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC1128F-6FE6-41DB-8E9C-A06B2EF61F3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14C5FA6-6091-4A93-A3A1-1F269C53CC13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>Tarefa</t>
   </si>
@@ -58,15 +58,9 @@
     <t>Geral</t>
   </si>
   <si>
-    <t>Aníbal e Vitor</t>
-  </si>
-  <si>
     <t>Implementação</t>
   </si>
   <si>
-    <t>Julio e Pedro</t>
-  </si>
-  <si>
     <t>Atualização de Análise</t>
   </si>
   <si>
@@ -83,18 +77,56 @@
   </si>
   <si>
     <t>Criação inicial DTOs</t>
+  </si>
+  <si>
+    <t>Implementação do web-service</t>
+  </si>
+  <si>
+    <t>Service/Domain</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Repositorio</t>
+  </si>
+  <si>
+    <t>Controller/Service</t>
+  </si>
+  <si>
+    <t>Javadocs</t>
+  </si>
+  <si>
+    <t>Documentação</t>
+  </si>
+  <si>
+    <t>Anibal, Vitor</t>
+  </si>
+  <si>
+    <t>Implementação de envio de
+ Emails com dados do utilizador</t>
+  </si>
+  <si>
+    <t>Demonstração Color Picker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,12 +260,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -245,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -254,16 +286,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -546,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -578,13 +613,13 @@
     </row>
     <row r="5" spans="2:15" ht="40.5" customHeight="1">
       <c r="B5" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
@@ -603,13 +638,13 @@
     </row>
     <row r="6" spans="2:15" ht="40.5" customHeight="1">
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -628,7 +663,7 @@
     </row>
     <row r="7" spans="2:15" ht="40.5" customHeight="1">
       <c r="B7" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -653,7 +688,7 @@
     </row>
     <row r="8" spans="2:15" ht="40.5" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
@@ -678,13 +713,13 @@
     </row>
     <row r="9" spans="2:15" ht="40.5" customHeight="1">
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -702,14 +737,20 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="2:15" ht="40.5" customHeight="1">
-      <c r="B10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -721,14 +762,20 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="2:15" ht="40.5" customHeight="1">
-      <c r="B11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10" t="s">
-        <v>8</v>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -740,14 +787,20 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="2:15" ht="40.5" customHeight="1">
-      <c r="B12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="10" t="s">
-        <v>8</v>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -759,12 +812,18 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="2:15" ht="40.5" customHeight="1">
-      <c r="B13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="3">
         <v>3</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
@@ -778,14 +837,20 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="2:15" ht="40.5" customHeight="1">
-      <c r="B14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="3">
         <v>4</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="10" t="s">
-        <v>9</v>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -797,14 +862,20 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="2:15" ht="40.5" customHeight="1">
-      <c r="B15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="10" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -815,236 +886,172 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="2:15" ht="40.5" customHeight="1">
-      <c r="B16" s="7"/>
+    <row r="16" spans="2:15" ht="83.25" customHeight="1">
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="10" t="s">
-        <v>9</v>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="10" t="s">
-        <v>9</v>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="40.5" customHeight="1">
       <c r="B18" s="8"/>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" ht="40.5" customHeight="1">
       <c r="B19" s="7"/>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" ht="40.5" customHeight="1">
       <c r="B20" s="7"/>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" ht="40.5" customHeight="1">
       <c r="B21" s="7"/>
-      <c r="C21" s="3">
-        <v>4</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" ht="40.5" customHeight="1">
       <c r="B22" s="7"/>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" ht="40.5" customHeight="1">
       <c r="B23" s="7"/>
-      <c r="C23" s="3">
-        <v>4</v>
-      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" ht="40.5" customHeight="1">
       <c r="B24" s="7"/>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" ht="40.5" customHeight="1">
       <c r="B25" s="8"/>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" ht="40.5" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" ht="40.5" customHeight="1">
       <c r="B27" s="7"/>
-      <c r="C27" s="3">
-        <v>3</v>
-      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="2:6" ht="40.5" customHeight="1">
       <c r="B28" s="7"/>
-      <c r="C28" s="3">
-        <v>3</v>
-      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="2:6" ht="40.5" customHeight="1">
       <c r="B29" s="7"/>
-      <c r="C29" s="3">
-        <v>3</v>
-      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="2:6" ht="40.5" customHeight="1">
       <c r="B30" s="9"/>
-      <c r="C30" s="3">
-        <v>3</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="2:6" ht="40.5" customHeight="1">
       <c r="B31" s="11"/>
-      <c r="C31" s="3">
-        <v>3</v>
-      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="2:6" ht="40.5" customHeight="1">
       <c r="B32" s="11"/>
-      <c r="C32" s="3">
-        <v>3</v>
-      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="2:6" ht="40.5" customHeight="1">
       <c r="B33" s="11"/>
-      <c r="C33" s="3">
-        <v>4</v>
-      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:6" ht="40.5" customHeight="1">
       <c r="B34" s="11"/>
-      <c r="C34" s="3">
-        <v>5</v>
-      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="2:6" ht="40.5" customHeight="1">
       <c r="B35" s="11"/>
-      <c r="C35" s="3">
-        <v>3</v>
-      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:6" ht="40.5" customHeight="1">
       <c r="B36" s="8"/>
-      <c r="C36" s="3">
-        <v>5</v>
-      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="2:6" ht="40.5" customHeight="1">
       <c r="B37" s="5"/>
@@ -1402,7 +1409,7 @@
     <row r="234" ht="44.25" customHeight="1"/>
     <row r="235" ht="44.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
